--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem2/123/word_level_predictions_123.xlsx
@@ -2605,237 +2605,237 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Settings</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>9</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>firmware</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>Settings</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>update</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>firmware</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4454,106 +4454,106 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="inlineStr">
+      <c r="D79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>19</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>0</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" s="2" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>19</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>19</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>2</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -18234,158 +18234,158 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
+      <c r="F343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="2" t="n">
+      <c r="A387" t="n">
         <v>35</v>
       </c>
-      <c r="B387" s="2" t="inlineStr">
+      <c r="B387" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" s="2" t="inlineStr">
+      <c r="C387" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" s="2" t="n">
+      <c r="D387" t="n">
         <v>0</v>
       </c>
-      <c r="E387" s="2" t="inlineStr">
+      <c r="E387" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K387" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L387" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G387" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K387" t="b">
+        <v>1</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="2" t="n">
+      <c r="A388" t="n">
         <v>35</v>
       </c>
-      <c r="B388" s="2" t="inlineStr">
+      <c r="B388" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" s="2" t="inlineStr">
+      <c r="C388" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" s="2" t="inlineStr">
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K388" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L388" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G388" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K388" t="b">
+        <v>1</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="2" t="n">
+      <c r="A389" t="n">
         <v>35</v>
       </c>
-      <c r="B389" s="2" t="inlineStr">
+      <c r="B389" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" s="2" t="inlineStr">
+      <c r="C389" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D389" s="2" t="n">
+      <c r="D389" t="n">
         <v>2</v>
       </c>
-      <c r="E389" s="2" t="inlineStr">
+      <c r="E389" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F389" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K389" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L389" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G389" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K389" t="b">
+        <v>1</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="2" t="n">
+      <c r="A390" t="n">
         <v>35</v>
       </c>
-      <c r="B390" s="2" t="inlineStr">
+      <c r="B390" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C390" s="2" t="inlineStr">
+      <c r="C390" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" s="2" t="n">
+      <c r="D390" t="n">
         <v>3</v>
       </c>
-      <c r="E390" s="2" t="inlineStr">
+      <c r="E390" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K390" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L390" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G390" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K390" t="b">
+        <v>1</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24734,366 +24734,366 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="2" t="n">
+      <c r="A468" t="n">
         <v>43</v>
       </c>
-      <c r="B468" s="2" t="inlineStr">
+      <c r="B468" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C468" s="2" t="inlineStr">
+      <c r="C468" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D468" s="2" t="n">
+      <c r="D468" t="n">
         <v>4</v>
       </c>
-      <c r="E468" s="2" t="inlineStr">
+      <c r="E468" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F468" s="2" t="inlineStr">
+      <c r="F468" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G468" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H468" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I468" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J468" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K468" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L468" s="2" t="inlineStr">
+      <c r="G468" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I468" t="b">
+        <v>1</v>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K468" t="b">
+        <v>1</v>
+      </c>
+      <c r="L468" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="2" t="n">
+      <c r="A469" t="n">
         <v>43</v>
       </c>
-      <c r="B469" s="2" t="inlineStr">
+      <c r="B469" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C469" s="2" t="inlineStr">
+      <c r="C469" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D469" s="2" t="n">
+      <c r="D469" t="n">
         <v>5</v>
       </c>
-      <c r="E469" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F469" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G469" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H469" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I469" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J469" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K469" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L469" s="2" t="inlineStr">
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G469" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I469" t="b">
+        <v>1</v>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K469" t="b">
+        <v>1</v>
+      </c>
+      <c r="L469" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="2" t="n">
+      <c r="A470" t="n">
         <v>43</v>
       </c>
-      <c r="B470" s="2" t="inlineStr">
+      <c r="B470" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C470" s="2" t="inlineStr">
+      <c r="C470" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D470" s="2" t="n">
+      <c r="D470" t="n">
         <v>6</v>
       </c>
-      <c r="E470" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F470" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G470" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H470" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J470" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L470" s="2" t="inlineStr">
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G470" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I470" t="b">
+        <v>1</v>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K470" t="b">
+        <v>1</v>
+      </c>
+      <c r="L470" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="2" t="n">
+      <c r="A471" t="n">
         <v>43</v>
       </c>
-      <c r="B471" s="2" t="inlineStr">
+      <c r="B471" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C471" s="2" t="inlineStr">
+      <c r="C471" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D471" s="2" t="n">
+      <c r="D471" t="n">
         <v>7</v>
       </c>
-      <c r="E471" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F471" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G471" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H471" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I471" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J471" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K471" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L471" s="2" t="inlineStr">
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G471" t="b">
+        <v>1</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I471" t="b">
+        <v>1</v>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K471" t="b">
+        <v>1</v>
+      </c>
+      <c r="L471" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="2" t="n">
+      <c r="A472" t="n">
         <v>43</v>
       </c>
-      <c r="B472" s="2" t="inlineStr">
+      <c r="B472" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C472" s="2" t="inlineStr">
+      <c r="C472" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D472" s="2" t="n">
+      <c r="D472" t="n">
         <v>8</v>
       </c>
-      <c r="E472" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F472" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G472" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H472" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I472" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J472" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K472" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L472" s="2" t="inlineStr">
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G472" t="b">
+        <v>1</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I472" t="b">
+        <v>1</v>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K472" t="b">
+        <v>1</v>
+      </c>
+      <c r="L472" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="2" t="n">
+      <c r="A473" t="n">
         <v>43</v>
       </c>
-      <c r="B473" s="2" t="inlineStr">
+      <c r="B473" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C473" s="2" t="inlineStr">
+      <c r="C473" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D473" s="2" t="n">
+      <c r="D473" t="n">
         <v>9</v>
       </c>
-      <c r="E473" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F473" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G473" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I473" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J473" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K473" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L473" s="2" t="inlineStr">
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G473" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I473" t="b">
+        <v>1</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K473" t="b">
+        <v>1</v>
+      </c>
+      <c r="L473" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="2" t="n">
+      <c r="A474" t="n">
         <v>43</v>
       </c>
-      <c r="B474" s="2" t="inlineStr">
+      <c r="B474" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C474" s="2" t="inlineStr">
+      <c r="C474" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D474" s="2" t="n">
+      <c r="D474" t="n">
         <v>10</v>
       </c>
-      <c r="E474" s="2" t="inlineStr">
+      <c r="E474" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F474" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G474" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J474" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L474" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G474" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I474" t="b">
+        <v>1</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K474" t="b">
+        <v>1</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" t="n">
         <v>45</v>
       </c>
-      <c r="B490" s="2" t="inlineStr">
+      <c r="B490" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" s="2" t="inlineStr">
+      <c r="C490" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" s="2" t="n">
+      <c r="D490" t="n">
         <v>7</v>
       </c>
-      <c r="E490" s="2" t="inlineStr">
+      <c r="E490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" s="2" t="inlineStr">
+      <c r="F490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L490" s="2" t="inlineStr">
+      <c r="G490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K490" t="b">
+        <v>1</v>
+      </c>
+      <c r="L490" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" t="n">
         <v>45</v>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B491" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
+      <c r="C491" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" s="2" t="n">
+      <c r="D491" t="n">
         <v>8</v>
       </c>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L491" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K491" t="b">
+        <v>1</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" t="n">
         <v>45</v>
       </c>
-      <c r="B492" s="2" t="inlineStr">
+      <c r="B492" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" s="2" t="inlineStr">
+      <c r="C492" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" s="2" t="n">
+      <c r="D492" t="n">
         <v>9</v>
       </c>
-      <c r="E492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L492" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K492" t="b">
+        <v>1</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" t="n">
         <v>45</v>
       </c>
-      <c r="B493" s="2" t="inlineStr">
+      <c r="B493" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" s="2" t="inlineStr">
+      <c r="C493" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" s="2" t="n">
+      <c r="D493" t="n">
         <v>10</v>
       </c>
-      <c r="E493" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L493" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K493" t="b">
+        <v>1</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" t="n">
         <v>45</v>
       </c>
-      <c r="B494" s="2" t="inlineStr">
+      <c r="B494" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" s="2" t="inlineStr">
+      <c r="C494" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" s="2" t="n">
+      <c r="D494" t="n">
         <v>11</v>
       </c>
-      <c r="E494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L494" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K494" t="b">
+        <v>1</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" t="n">
         <v>45</v>
       </c>
-      <c r="B495" s="2" t="inlineStr">
+      <c r="B495" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" s="2" t="inlineStr">
+      <c r="C495" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" s="2" t="n">
+      <c r="D495" t="n">
         <v>12</v>
       </c>
-      <c r="E495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L495" s="2" t="inlineStr">
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K495" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" t="n">
         <v>45</v>
       </c>
-      <c r="B496" s="2" t="inlineStr">
+      <c r="B496" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" s="2" t="inlineStr">
+      <c r="C496" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" s="2" t="n">
+      <c r="D496" t="n">
         <v>13</v>
       </c>
-      <c r="E496" s="2" t="inlineStr">
+      <c r="E496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L496" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K496" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem2/123/word_level_predictions_123.xlsx
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2629,213 +2629,213 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4454,106 +4454,106 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>8</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>0</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>8</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -18234,158 +18234,158 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
+      <c r="A343" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="B343" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="C343" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" t="n">
+      <c r="D343" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E343" t="inlineStr">
+      <c r="E343" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" t="inlineStr">
+      <c r="F343" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L343" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
+      <c r="A344" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B344" t="inlineStr">
+      <c r="B344" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
+      <c r="C344" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" t="n">
+      <c r="D344" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L344" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
+      <c r="A345" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B345" t="inlineStr">
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" t="n">
+      <c r="D345" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E345" t="inlineStr">
+      <c r="E345" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F345" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L345" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
+      <c r="A387" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B387" t="inlineStr">
+      <c r="B387" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
+      <c r="C387" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" t="n">
+      <c r="D387" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E387" t="inlineStr">
+      <c r="E387" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G387" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K387" t="b">
-        <v>1</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F387" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K387" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L387" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
+      <c r="A388" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B388" t="inlineStr">
+      <c r="B388" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
+      <c r="C388" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" t="inlineStr">
+      <c r="D388" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" t="inlineStr">
+      <c r="F388" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K388" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L388" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B389" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C389" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E389" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G388" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K388" t="b">
-        <v>1</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
+      <c r="F389" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K389" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L389" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B389" t="inlineStr">
+      <c r="B390" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D389" t="n">
-        <v>2</v>
-      </c>
-      <c r="E389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G389" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K389" t="b">
-        <v>1</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>35</v>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr">
+      <c r="C390" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" t="n">
+      <c r="D390" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E390" t="inlineStr">
+      <c r="E390" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G390" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K390" t="b">
-        <v>1</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F390" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K390" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L390" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -24734,366 +24734,366 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="n">
+      <c r="A468" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B468" t="inlineStr">
+      <c r="B468" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr">
+      <c r="C468" s="2" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D468" t="n">
+      <c r="D468" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E468" t="inlineStr">
+      <c r="E468" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F468" t="inlineStr">
+      <c r="F468" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G468" t="b">
-        <v>1</v>
-      </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I468" t="b">
-        <v>1</v>
-      </c>
-      <c r="J468" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K468" t="b">
-        <v>1</v>
-      </c>
-      <c r="L468" t="inlineStr">
+      <c r="G468" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I468" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J468" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K468" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L468" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="n">
+      <c r="A469" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B469" t="inlineStr">
+      <c r="B469" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C469" t="inlineStr">
+      <c r="C469" s="2" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D469" t="n">
+      <c r="D469" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G469" t="b">
-        <v>1</v>
-      </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I469" t="b">
-        <v>1</v>
-      </c>
-      <c r="J469" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K469" t="b">
-        <v>1</v>
-      </c>
-      <c r="L469" t="inlineStr">
+      <c r="E469" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F469" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G469" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I469" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J469" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K469" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L469" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="n">
+      <c r="A470" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B470" t="inlineStr">
+      <c r="B470" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C470" t="inlineStr">
+      <c r="C470" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D470" t="n">
+      <c r="D470" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F470" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G470" t="b">
-        <v>1</v>
-      </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I470" t="b">
-        <v>1</v>
-      </c>
-      <c r="J470" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K470" t="b">
-        <v>1</v>
-      </c>
-      <c r="L470" t="inlineStr">
+      <c r="E470" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F470" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G470" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J470" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L470" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="n">
+      <c r="A471" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B471" t="inlineStr">
+      <c r="B471" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C471" t="inlineStr">
+      <c r="C471" s="2" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D471" t="n">
+      <c r="D471" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F471" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G471" t="b">
-        <v>1</v>
-      </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I471" t="b">
-        <v>1</v>
-      </c>
-      <c r="J471" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K471" t="b">
-        <v>1</v>
-      </c>
-      <c r="L471" t="inlineStr">
+      <c r="E471" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F471" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G471" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H471" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I471" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J471" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K471" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L471" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="n">
+      <c r="A472" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B472" t="inlineStr">
+      <c r="B472" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C472" t="inlineStr">
+      <c r="C472" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D472" t="n">
+      <c r="D472" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F472" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G472" t="b">
-        <v>1</v>
-      </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I472" t="b">
-        <v>1</v>
-      </c>
-      <c r="J472" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K472" t="b">
-        <v>1</v>
-      </c>
-      <c r="L472" t="inlineStr">
+      <c r="E472" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F472" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G472" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H472" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I472" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J472" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K472" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L472" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="n">
+      <c r="A473" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B473" t="inlineStr">
+      <c r="B473" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C473" t="inlineStr">
+      <c r="C473" s="2" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D473" t="n">
+      <c r="D473" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F473" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G473" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I473" t="b">
-        <v>1</v>
-      </c>
-      <c r="J473" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K473" t="b">
-        <v>1</v>
-      </c>
-      <c r="L473" t="inlineStr">
+      <c r="E473" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F473" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G473" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I473" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J473" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K473" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L473" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="n">
+      <c r="A474" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B474" t="inlineStr">
+      <c r="B474" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr">
+      <c r="C474" s="2" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D474" t="n">
+      <c r="D474" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E474" t="inlineStr">
+      <c r="E474" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F474" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G474" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I474" t="b">
-        <v>1</v>
-      </c>
-      <c r="J474" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K474" t="b">
-        <v>1</v>
-      </c>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F474" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G474" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J474" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L474" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
+      <c r="A490" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B490" t="inlineStr">
+      <c r="B490" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C490" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E490" t="inlineStr">
+      <c r="E490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" t="inlineStr">
+      <c r="F490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G490" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K490" t="b">
-        <v>1</v>
-      </c>
-      <c r="L490" t="inlineStr">
+      <c r="G490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L490" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
+      <c r="A491" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B491" t="inlineStr">
+      <c r="B491" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C491" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K491" t="b">
-        <v>1</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J491" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L491" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
+      <c r="A492" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B492" t="inlineStr">
+      <c r="B492" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
+      <c r="C492" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K492" t="b">
-        <v>1</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J492" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L492" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B493" t="inlineStr">
+      <c r="B493" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C493" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G493" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K493" t="b">
-        <v>1</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J493" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L493" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
+      <c r="A494" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B494" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C494" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K494" t="b">
-        <v>1</v>
-      </c>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J494" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L494" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
+      <c r="A495" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B495" t="inlineStr">
+      <c r="B495" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
+      <c r="C495" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K495" t="b">
-        <v>1</v>
-      </c>
-      <c r="L495" t="inlineStr">
+      <c r="E495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J495" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L495" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B496" t="inlineStr">
+      <c r="B496" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E496" t="inlineStr">
+      <c r="E496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F496" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J496" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L496" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
